--- a/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/52/parameters.xlsx
+++ b/SOO_results/DP1000_room_SwiftVoce_NDBR50_curve2/initial/52/parameters.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5305305305305306</v>
+        <v>0.176017601760176</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>566.5665665665666</v>
+        <v>680.8880888088809</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02192192192192192</v>
+        <v>0.01837183718371837</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.06406406406406406</v>
+        <v>0.420942094209421</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>780.7807807807809</v>
+        <v>891.4291429142914</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.09709709709711</v>
+        <v>865.6165616561656</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>704.7047047047048</v>
+        <v>403.1377137713771</v>
       </c>
     </row>
   </sheetData>
